--- a/src/main/resources/python/MultifacetedModeling/RuleExtraction/SVR/feature_importance.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/RuleExtraction/SVR/feature_importance.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.9197404512908</v>
+        <v>110.919740451312</v>
       </c>
       <c r="C3" t="n">
-        <v>1.347387229925994e-28</v>
+        <v>1.347387229917616e-28</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87.50630413051756</v>
+        <v>87.50630413044588</v>
       </c>
       <c r="C4" t="n">
-        <v>2.460501034509313e-25</v>
+        <v>2.460501034571463e-25</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77.58598578790047</v>
+        <v>77.58598578790314</v>
       </c>
       <c r="C5" t="n">
-        <v>9.521198245077338e-24</v>
+        <v>9.521198245067512e-24</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74.2819594501628</v>
+        <v>74.28195945021285</v>
       </c>
       <c r="C6" t="n">
-        <v>3.474713523677372e-23</v>
+        <v>3.474713523608166e-23</v>
       </c>
     </row>
     <row r="7">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>37.95585863450522</v>
+        <v>37.95585863450329</v>
       </c>
       <c r="C9" t="n">
-        <v>2.024731991496947e-15</v>
+        <v>2.024731991499368e-15</v>
       </c>
     </row>
     <row r="10">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>29.23187305604099</v>
+        <v>29.23187305602602</v>
       </c>
       <c r="C12" t="n">
-        <v>6.588751809464124e-13</v>
+        <v>6.588751809534338e-13</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24.68996712852271</v>
+        <v>24.68996712852375</v>
       </c>
       <c r="C13" t="n">
-        <v>1.916998646437107e-11</v>
+        <v>1.91699864643556e-11</v>
       </c>
     </row>
     <row r="14">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.959391550049488</v>
+        <v>5.959391550049697</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0010066807757414</v>
+        <v>0.001006680775741159</v>
       </c>
     </row>
     <row r="17">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.615565929523093</v>
+        <v>1.615565929523088</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1921811971241447</v>
+        <v>0.192181197124148</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/src/main/resources/python/MultifacetedModeling/RuleExtraction/SVR/feature_importance.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/RuleExtraction/SVR/feature_importance.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,7 +460,7 @@
         <v>115.6001389234524</v>
       </c>
       <c r="C2" t="n">
-        <v>3.500917140596645e-29</v>
+        <v>3.500917140596656e-29</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         <v>110.919740451312</v>
       </c>
       <c r="C3" t="n">
-        <v>1.347387229917616e-28</v>
+        <v>1.347387229917622e-28</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         <v>87.50630413044588</v>
       </c>
       <c r="C4" t="n">
-        <v>2.460501034571463e-25</v>
+        <v>2.460501034571476e-25</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         <v>77.58598578790314</v>
       </c>
       <c r="C5" t="n">
-        <v>9.521198245067512e-24</v>
+        <v>9.521198245067521e-24</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>74.28195945021285</v>
       </c>
       <c r="C6" t="n">
-        <v>3.474713523608166e-23</v>
+        <v>3.474713523608177e-23</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         <v>69.52488529583752</v>
       </c>
       <c r="C7" t="n">
-        <v>2.417022643878773e-22</v>
+        <v>2.417022643878778e-22</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         <v>54.27340122794773</v>
       </c>
       <c r="C8" t="n">
-        <v>2.468263645663621e-19</v>
+        <v>2.468263645663618e-19</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         <v>37.95585863450329</v>
       </c>
       <c r="C9" t="n">
-        <v>2.024731991499368e-15</v>
+        <v>2.024731991499367e-15</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +564,7 @@
         <v>31.80439261601773</v>
       </c>
       <c r="C10" t="n">
-        <v>1.097042127298831e-13</v>
+        <v>1.097042127298835e-13</v>
       </c>
     </row>
     <row r="11">
@@ -590,7 +590,7 @@
         <v>29.23187305602602</v>
       </c>
       <c r="C12" t="n">
-        <v>6.588751809534338e-13</v>
+        <v>6.588751809534334e-13</v>
       </c>
     </row>
     <row r="13">
@@ -603,7 +603,7 @@
         <v>24.68996712852375</v>
       </c>
       <c r="C13" t="n">
-        <v>1.91699864643556e-11</v>
+        <v>1.916998646435566e-11</v>
       </c>
     </row>
     <row r="14">
@@ -629,7 +629,7 @@
         <v>6.739124100186037</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0004081847076591457</v>
+        <v>0.000408184707659146</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +642,7 @@
         <v>5.959391550049697</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001006680775741159</v>
+        <v>0.00100668077574116</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         <v>1.615565929523088</v>
       </c>
       <c r="C17" t="n">
-        <v>0.192181197124148</v>
+        <v>0.1921811971241481</v>
       </c>
     </row>
   </sheetData>
